--- a/Hardware/Documentation/Misko3 pin mapping.xlsx
+++ b/Hardware/Documentation/Misko3 pin mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/markoj_fe1_uni-lj_si/Documents/Pedagogika/OME/Razvojni sistem/Misko3 git/MISKO/Hardware/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/markoj_fe1_uni-lj_si/Documents/Pedagogika/OME/Razvojni sistem/Misko3 git/MiSKo3/Hardware/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1445" documentId="8_{8F55C5EF-2DE0-49B2-9A4D-B42DB703D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA6D9FB-A900-4EE1-82F4-700ABD8741C6}"/>
+  <xr:revisionPtr revIDLastSave="1466" documentId="8_{8F55C5EF-2DE0-49B2-9A4D-B42DB703D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962BDE31-2FB6-43AD-B891-6425CD816CAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA822E52-2D53-4BE7-96F2-490201202367}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CA822E52-2D53-4BE7-96F2-490201202367}"/>
   </bookViews>
   <sheets>
     <sheet name="MCU pinout" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="715">
   <si>
     <t>PB7</t>
   </si>
@@ -2024,9 +2024,6 @@
     <t>TIM20_CH4N/BKIN</t>
   </si>
   <si>
-    <t>TIM20_CH4N/ETR</t>
-  </si>
-  <si>
     <t>Advanced</t>
   </si>
   <si>
@@ -2175,6 +2172,15 @@
   </si>
   <si>
     <t>SCL2</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI/SPI3_MOSI</t>
+  </si>
+  <si>
+    <t>I2C1_SMBA/I2C3_SDA</t>
+  </si>
+  <si>
+    <t>USART2_CK/UART5_CTS</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2312,8 +2318,14 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2330,6 +2342,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2341,7 +2364,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2359,6 +2382,9 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2795,20 +2821,8 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9321D637-6504-4084-98EC-7820ABD83526}" name="Misko3pinout" displayName="Misko3pinout" ref="A2:Z137" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A2:Z137" xr:uid="{9321D637-6504-4084-98EC-7820ABD83526}">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="J10"/>
-        <filter val="J4"/>
-        <filter val="J5"/>
-        <filter val="J6"/>
-        <filter val="J7"/>
-        <filter val="J8"/>
-        <filter val="J9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:Z104">
+  <autoFilter ref="A2:Z137" xr:uid="{9321D637-6504-4084-98EC-7820ABD83526}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z137">
     <sortCondition ref="A2:A137"/>
   </sortState>
   <tableColumns count="26">
@@ -3167,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F2E09-EB3E-484D-A6A1-87A93D480571}">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8717E3D0-9D4C-4130-BE7D-A2DA46AD295D}">
   <dimension ref="A1:AA137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7285,46 +7299,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z1" s="10"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7340,7 +7354,7 @@
         <v>583</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>631</v>
@@ -7358,19 +7372,19 @@
         <v>634</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>664</v>
-      </c>
       <c r="M2" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>673</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>638</v>
@@ -7388,7 +7402,7 @@
         <v>591</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>587</v>
@@ -7408,88 +7422,58 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
+      <c r="A3" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>374</v>
-      </c>
+      <c r="J3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>452</v>
-      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>630</v>
-      </c>
+      <c r="J4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -7497,161 +7481,119 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" s="5">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="A5" s="4">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>73</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>492</v>
+      <c r="A6" s="4">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5" t="s">
-        <v>475</v>
-      </c>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5" t="s">
-        <v>612</v>
-      </c>
+      <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>74</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q7" s="5"/>
+      <c r="A7" s="4">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5" t="s">
-        <v>615</v>
-      </c>
+      <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>96</v>
       </c>
@@ -7665,7 +7607,7 @@
         <v>263</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>264</v>
@@ -7694,7 +7636,7 @@
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>612</v>
@@ -7704,7 +7646,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>98</v>
       </c>
@@ -7718,7 +7660,7 @@
         <v>269</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>270</v>
@@ -7738,7 +7680,7 @@
         <v>236</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -7747,7 +7689,7 @@
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>289</v>
@@ -7758,34 +7700,27 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>75</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="A10" s="4">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>506</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -7794,29 +7729,27 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7</v>
-      </c>
+      <c r="A11" s="4">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>339</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -7829,21 +7762,30 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8</v>
-      </c>
+      <c r="A12" s="4">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>340</v>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -7857,457 +7799,337 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>89</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>251</v>
+      <c r="A13" s="4">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="5">
-        <v>20</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>525</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>512</v>
-      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>529</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="X13" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>90</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>253</v>
+      <c r="A14" s="4">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H14" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5">
-        <v>21</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>516</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+        <v>687</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>118</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>289</v>
+      <c r="A15" s="4">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
-        <v>18</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>324</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>562</v>
+        <v>403</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>658</v>
+        <v>409</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5" t="s">
-        <v>621</v>
+        <v>410</v>
       </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5" t="s">
-        <v>535</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>119</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>291</v>
+      <c r="A16" s="4">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H16" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="5">
-        <v>19</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>323</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>453</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5" t="s">
-        <v>622</v>
+        <v>410</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>611</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="X16" s="5"/>
+        <v>603</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>100</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="5">
-        <v>6</v>
-      </c>
-      <c r="I17" s="5">
-        <v>16</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>651</v>
-      </c>
+      <c r="A17" s="4">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>101</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5">
-        <v>17</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>650</v>
+      <c r="A18" s="4">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" s="4">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="T18" s="5"/>
+        <v>410</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
-        <v>294</v>
-      </c>
+      <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>102</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="A19" s="4">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="H19" s="5">
-        <v>8</v>
-      </c>
-      <c r="I19" s="5">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>655</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="5"/>
-      <c r="R19" s="5" t="s">
-        <v>618</v>
-      </c>
+      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5" t="s">
-        <v>617</v>
-      </c>
+      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5" t="s">
-        <v>493</v>
-      </c>
+      <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>112</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" s="5">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5">
-        <v>15</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>327</v>
-      </c>
+      <c r="A20" s="4">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -8322,28 +8144,32 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H21" s="5">
-        <v>8</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>337</v>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -8357,29 +8183,37 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="5">
-        <v>7</v>
-      </c>
+      <c r="A22" s="5">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -8392,51 +8226,32 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>694</v>
+        <v>117</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H23" s="5">
-        <v>30</v>
-      </c>
-      <c r="I23" s="5">
-        <v>49</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>243</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -8444,50 +8259,33 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>694</v>
+        <v>117</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H24" s="5">
-        <v>28</v>
-      </c>
-      <c r="I24" s="5">
-        <v>47</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>643</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -8498,11 +8296,9 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>68</v>
       </c>
@@ -8516,7 +8312,7 @@
         <v>216</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>217</v>
@@ -8555,7 +8351,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>69</v>
       </c>
@@ -8569,7 +8365,7 @@
         <v>219</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>220</v>
@@ -8586,7 +8382,7 @@
         <v>416</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>647</v>
@@ -8610,54 +8406,49 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>694</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H27" s="5">
-        <v>27</v>
-      </c>
-      <c r="I27" s="5">
-        <v>46</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>416</v>
+        <v>636</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>465</v>
+        <v>630</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>644</v>
+        <v>437</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -8666,143 +8457,130 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H28" s="5">
-        <v>29</v>
-      </c>
-      <c r="I28" s="5">
-        <v>48</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>505</v>
-      </c>
       <c r="N28" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>466</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="U28" s="5"/>
       <c r="V28" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H29" s="4">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5">
-        <v>35</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q29" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="V29" s="5" t="s">
+        <v>625</v>
+      </c>
       <c r="W29" s="5" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="Z29" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="4">
-        <v>15</v>
-      </c>
-      <c r="I30" s="5">
-        <v>34</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
-        <v>629</v>
+      <c r="H30" s="5">
+        <v>35</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -8810,50 +8588,34 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H31" s="4">
-        <v>10</v>
-      </c>
-      <c r="I31" s="5">
-        <v>29</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="5" t="s">
-        <v>493</v>
-      </c>
+      <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
@@ -8861,87 +8623,101 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H32" s="4">
-        <v>18</v>
-      </c>
-      <c r="I32" s="5">
-        <v>37</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="M32" s="5" t="s">
-        <v>507</v>
+        <v>127</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="U32" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H33" s="4">
-        <v>17</v>
-      </c>
-      <c r="I33" s="5">
-        <v>36</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="M33" s="5" t="s">
-        <v>509</v>
+        <v>374</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="T33" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
@@ -8949,95 +8725,102 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H34" s="5">
-        <v>22</v>
-      </c>
-      <c r="I34" s="5">
-        <v>41</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="M34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>630</v>
       </c>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
+      <c r="R34" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>304</v>
-      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="Z34" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H35" s="5">
-        <v>24</v>
-      </c>
-      <c r="I35" s="5">
-        <v>43</v>
-      </c>
-      <c r="J35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="M35" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
+        <v>368</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5" t="s">
-        <v>614</v>
+        <v>454</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
@@ -9045,135 +8828,154 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>693</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>301</v>
       </c>
       <c r="H36" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I36" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>607</v>
-      </c>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="Z36" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>695</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H37" s="5">
-        <v>25</v>
-      </c>
-      <c r="I37" s="5">
-        <v>44</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="M37" s="5" t="s">
-        <v>449</v>
+        <v>164</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="T37" s="5"/>
-      <c r="U37" s="5" t="s">
-        <v>682</v>
-      </c>
+      <c r="U37" s="5"/>
       <c r="V37" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H38" s="4">
-        <v>8</v>
-      </c>
-      <c r="I38" s="5">
-        <v>27</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>645</v>
+      </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
+      <c r="U38" s="5" t="s">
+        <v>683</v>
+      </c>
       <c r="V38" s="5" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
@@ -9182,47 +8984,59 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>222</v>
+        <v>602</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>693</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H39" s="4">
-        <v>9</v>
+      <c r="H39" s="5">
+        <v>28</v>
       </c>
       <c r="I39" s="5">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>643</v>
+      </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="5" t="s">
-        <v>294</v>
-      </c>
+      <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -9236,7 +9050,7 @@
         <v>114</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>73</v>
@@ -9250,7 +9064,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>396</v>
@@ -9268,33 +9082,55 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>117</v>
+        <v>601</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" s="5">
+        <v>27</v>
+      </c>
+      <c r="I41" s="5">
+        <v>46</v>
+      </c>
       <c r="J41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
+      <c r="V41" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
@@ -9302,375 +9138,277 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>695</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H42" s="5">
-        <v>34</v>
-      </c>
-      <c r="I42" s="5">
-        <v>53</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" s="4">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>455</v>
+        <v>183</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>654</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H43" s="4">
-        <v>11</v>
-      </c>
-      <c r="I43" s="5">
-        <v>30</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="U43" s="5"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="5" t="s">
-        <v>603</v>
-      </c>
+      <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>198</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H44" s="4">
-        <v>3</v>
-      </c>
-      <c r="I44" s="5">
-        <v>22</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5" t="s">
-        <v>423</v>
+        <v>707</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" s="5">
+        <v>8</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="Q44" s="5"/>
-      <c r="R44" s="5" t="s">
-        <v>375</v>
-      </c>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H45" s="4">
-        <v>4</v>
-      </c>
-      <c r="I45" s="5">
-        <v>23</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="Q45" s="5"/>
-      <c r="R45" s="5" t="s">
-        <v>370</v>
-      </c>
+      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H46" s="4">
-        <v>5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>24</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="Q46" s="5"/>
-      <c r="R46" s="5" t="s">
-        <v>385</v>
-      </c>
+      <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H47" s="4">
-        <v>6</v>
-      </c>
-      <c r="I47" s="5">
-        <v>25</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="s">
-        <v>628</v>
+      <c r="H47" s="5">
+        <v>36</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="Q47" s="5"/>
-      <c r="R47" s="5" t="s">
-        <v>390</v>
-      </c>
+      <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="5" t="s">
-        <v>600</v>
-      </c>
+      <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H48" s="4">
-        <v>7</v>
-      </c>
-      <c r="I48" s="5">
-        <v>26</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5" t="s">
-        <v>667</v>
-      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>301</v>
       </c>
       <c r="H49" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I49" s="5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="5" t="s">
-        <v>689</v>
-      </c>
+      <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -9679,324 +9417,306 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H50" s="4">
-        <v>13</v>
+        <v>184</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="5">
+        <v>7</v>
       </c>
       <c r="I50" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
+      <c r="X50" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H51" s="4">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H51" s="5">
+        <v>8</v>
       </c>
       <c r="I51" s="5">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="K51" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
+      <c r="X51" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H52" s="4">
-        <v>21</v>
+        <v>190</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
       </c>
       <c r="I52" s="5">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
+      <c r="X52" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>695</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H53" s="5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I53" s="5">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H54" s="5">
-        <v>31</v>
+      <c r="H54" s="4">
+        <v>14</v>
       </c>
       <c r="I54" s="5">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>661</v>
+        <v>457</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="5" t="s">
-        <v>477</v>
-      </c>
+      <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="U54" s="5" t="s">
+        <v>688</v>
+      </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="5" t="s">
-        <v>522</v>
-      </c>
+      <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
+        <v>13</v>
+      </c>
+      <c r="I55" s="5">
         <v>32</v>
-      </c>
-      <c r="I55" s="5">
-        <v>51</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>406</v>
+        <v>395</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-      <c r="S55" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
+      <c r="U55" s="5" t="s">
+        <v>687</v>
+      </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="5" t="s">
-        <v>523</v>
-      </c>
+      <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H56" s="5">
-        <v>19</v>
+      <c r="H56" s="4">
+        <v>12</v>
       </c>
       <c r="I56" s="5">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>473</v>
+        <v>420</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="Q56" s="5"/>
-      <c r="R56" s="5" t="s">
-        <v>450</v>
-      </c>
+      <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5" t="s">
-        <v>454</v>
-      </c>
+      <c r="U56" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
@@ -10004,299 +9724,343 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H57" s="4">
+        <v>11</v>
+      </c>
+      <c r="I57" s="5">
         <v>30</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H57" s="5">
-        <v>35</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
-        <v>336</v>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
+      <c r="U57" s="5" t="s">
+        <v>686</v>
+      </c>
       <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
+      <c r="W57" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H58" s="5">
-        <v>36</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
-        <v>336</v>
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" s="5">
+        <v>22</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
+      <c r="R58" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
+      <c r="W58" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5" t="s">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
-        <v>343</v>
+      <c r="H59" s="4">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5">
+        <v>23</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
+      <c r="R59" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
+      <c r="W59" s="5" t="s">
+        <v>601</v>
+      </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5" t="s">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H60" s="5">
-        <v>2</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
-        <v>343</v>
+      <c r="H60" s="4">
+        <v>5</v>
+      </c>
+      <c r="I60" s="5">
+        <v>24</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
+      <c r="R60" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
+      <c r="W60" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="E61" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H61" s="5">
-        <v>23</v>
-      </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
-        <v>338</v>
+      <c r="H61" s="4">
+        <v>6</v>
+      </c>
+      <c r="I61" s="5">
+        <v>25</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
+      <c r="R61" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
+      <c r="W61" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F62" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H62" s="4">
+        <v>7</v>
       </c>
       <c r="I62" s="5">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>329</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q62" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>434</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="X62" s="5"/>
-      <c r="Y62" s="5" t="s">
-        <v>535</v>
-      </c>
+      <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>18</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H63" s="5">
-        <v>6</v>
-      </c>
-      <c r="I63" s="5">
-        <v>5</v>
-      </c>
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="Q63" s="5"/>
-      <c r="R63" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="U63" s="5"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="X63" s="5" t="s">
-        <v>413</v>
-      </c>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="H64" s="5">
         <v>7</v>
       </c>
-      <c r="I64" s="5">
-        <v>6</v>
-      </c>
-      <c r="J64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -10304,518 +10068,402 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="5" t="s">
-        <v>474</v>
-      </c>
+      <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>186</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H65" s="5">
-        <v>8</v>
-      </c>
-      <c r="I65" s="5">
-        <v>7</v>
-      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="5" t="s">
-        <v>475</v>
-      </c>
+      <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="5" t="s">
-        <v>476</v>
-      </c>
+      <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>15</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H66" s="5">
-        <v>3</v>
-      </c>
-      <c r="I66" s="5">
-        <v>2</v>
-      </c>
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="U66" s="5"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="X66" s="5" t="s">
-        <v>404</v>
-      </c>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>16</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H67" s="5">
-        <v>4</v>
-      </c>
-      <c r="I67" s="5">
-        <v>3</v>
-      </c>
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="U67" s="5"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="X67" s="5" t="s">
-        <v>407</v>
-      </c>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>17</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H68" s="5">
-        <v>5</v>
-      </c>
-      <c r="I68" s="5">
-        <v>4</v>
-      </c>
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="Q68" s="5"/>
-      <c r="R68" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="U68" s="5"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="X68" s="5" t="s">
-        <v>411</v>
-      </c>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F69" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H69" s="5">
-        <v>2</v>
+        <v>221</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" s="4">
+        <v>8</v>
       </c>
       <c r="I69" s="5">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>445</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
+      <c r="V69" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="W69" s="5"/>
-      <c r="X69" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F70" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H70" s="5">
-        <v>10</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="P70" s="5" t="s">
-        <v>656</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H70" s="4">
+        <v>9</v>
+      </c>
+      <c r="I70" s="5">
+        <v>28</v>
+      </c>
+      <c r="J70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="R70" s="5"/>
       <c r="S70" s="5"/>
-      <c r="T70" s="5" t="s">
-        <v>593</v>
-      </c>
+      <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="W70" s="5" t="s">
-        <v>548</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="W70" s="5"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F71" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H71" s="5">
-        <v>9</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="P71" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>428</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H71" s="4">
+        <v>10</v>
+      </c>
+      <c r="I71" s="5">
+        <v>29</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-      <c r="S71" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
       <c r="W71" s="5"/>
-      <c r="X71" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H72" s="5">
-        <v>3</v>
-      </c>
-      <c r="I72" s="5">
-        <v>10</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="M72" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="P72" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>513</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="T72" s="6" t="s">
-        <v>512</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="T72" s="5"/>
       <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
+      <c r="V72" s="5" t="s">
+        <v>612</v>
+      </c>
       <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
+      <c r="X72" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H73" s="5">
-        <v>4</v>
-      </c>
-      <c r="I73" s="5">
-        <v>11</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H73" s="4">
+        <v>3</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="M73" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="P73" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>516</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="T73" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
       <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
+      <c r="V73" s="5" t="s">
+        <v>615</v>
+      </c>
       <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
+      <c r="X73" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H74" s="5">
-        <v>5</v>
-      </c>
-      <c r="I74" s="5">
-        <v>12</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5" t="s">
-        <v>189</v>
+        <v>229</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H74" s="4">
+        <v>4</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="P74" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q74" s="5" t="s">
-        <v>525</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-      <c r="S74" s="5" t="s">
-        <v>397</v>
-      </c>
+      <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
+      <c r="X74" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -10829,7 +10477,7 @@
         <v>102</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>102</v>
@@ -10855,7 +10503,7 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
@@ -10865,7 +10513,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -10879,7 +10527,7 @@
         <v>104</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>104</v>
@@ -10905,7 +10553,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
@@ -10915,7 +10563,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -10929,7 +10577,7 @@
         <v>106</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>106</v>
@@ -10955,7 +10603,7 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
@@ -10965,7 +10613,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>4</v>
       </c>
@@ -10979,7 +10627,7 @@
         <v>108</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>108</v>
@@ -11005,7 +10653,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
@@ -11015,7 +10663,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>5</v>
       </c>
@@ -11029,7 +10677,7 @@
         <v>110</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>110</v>
@@ -11052,7 +10700,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
@@ -11064,48 +10712,40 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E80" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F80" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H80" s="5">
-        <v>6</v>
+        <v>230</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H80" s="4">
+        <v>18</v>
       </c>
       <c r="I80" s="5">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J80" s="5"/>
-      <c r="L80" s="5" t="s">
-        <v>528</v>
-      </c>
       <c r="M80" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="P80" s="5" t="s">
-        <v>659</v>
+        <v>507</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="T80" s="5" t="s">
-        <v>527</v>
-      </c>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
@@ -11115,134 +10755,106 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E81" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F81" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H81" s="4">
+        <v>17</v>
       </c>
       <c r="I81" s="5">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J81" s="5"/>
+      <c r="M81" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5" t="s">
-        <v>477</v>
-      </c>
+      <c r="R81" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
-      <c r="X81" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>192</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="5" t="s">
-        <v>193</v>
-      </c>
+      <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="H82" s="5">
-        <v>2</v>
-      </c>
-      <c r="I82" s="5">
-        <v>9</v>
-      </c>
-      <c r="J82" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
-      <c r="X82" s="5" t="s">
-        <v>480</v>
-      </c>
+      <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H83" s="4">
-        <v>1</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q83" s="5" t="s">
-        <v>399</v>
-      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
-      <c r="V83" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
@@ -11250,48 +10862,49 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H84" s="4">
-        <v>2</v>
-      </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>443</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84" s="5">
+        <v>3</v>
+      </c>
+      <c r="I84" s="5">
+        <v>10</v>
+      </c>
+      <c r="J84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q84" s="5"/>
+        <v>368</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="T84" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="U84" s="5"/>
-      <c r="V84" s="5" t="s">
-        <v>614</v>
-      </c>
+      <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
@@ -11299,334 +10912,302 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H85" s="4">
-        <v>3</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>446</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4</v>
+      </c>
+      <c r="I85" s="5">
+        <v>11</v>
+      </c>
+      <c r="J85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>409</v>
+        <v>374</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="U85" s="5"/>
-      <c r="V85" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="W85" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
-      <c r="Z85" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z85" s="5"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>700</v>
+      </c>
       <c r="F86" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H86" s="4">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="J86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="V86" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="W86" s="5" t="s">
-        <v>603</v>
-      </c>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H87" s="4">
-        <v>8</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="O87" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="P87" s="5" t="s">
-        <v>654</v>
-      </c>
+      <c r="J87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="5" t="s">
-        <v>470</v>
-      </c>
+      <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
-      <c r="W87" s="5" t="s">
-        <v>607</v>
-      </c>
+      <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E88" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>694</v>
+      </c>
       <c r="F88" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H88" s="4">
-        <v>5</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H88" s="5">
+        <v>33</v>
+      </c>
+      <c r="I88" s="5">
+        <v>52</v>
+      </c>
+      <c r="J88" s="5"/>
       <c r="K88" s="5" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="5" t="s">
-        <v>253</v>
-      </c>
+      <c r="S88" s="5"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
-      <c r="V88" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="W88" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="X88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>694</v>
+      </c>
       <c r="F89" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H89" s="4">
-        <v>7</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H89" s="5">
+        <v>31</v>
+      </c>
+      <c r="I89" s="5">
+        <v>50</v>
+      </c>
+      <c r="J89" s="5"/>
       <c r="K89" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="P89" s="5" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="V89" s="5" t="s">
-        <v>255</v>
-      </c>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
       <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
+      <c r="X89" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>20</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H90" s="4">
-        <v>6</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>137</v>
+      <c r="A90" s="5">
+        <v>86</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H90" s="5">
+        <v>32</v>
+      </c>
+      <c r="I90" s="5">
+        <v>51</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="Q90" s="5"/>
-      <c r="R90" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="S90" s="5"/>
-      <c r="T90" s="6" t="s">
-        <v>592</v>
-      </c>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
+      <c r="X90" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>21</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F91" s="4"/>
+      <c r="A91" s="5">
+        <v>87</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="G91" s="5" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="H91" s="5">
-        <v>3</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q91" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="I91" s="5">
+        <v>12</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
@@ -11637,33 +11218,48 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="F92" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="G92" s="5" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="H92" s="5">
-        <v>2</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
-        <v>344</v>
+        <v>6</v>
+      </c>
+      <c r="I92" s="5">
+        <v>13</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="L92" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>659</v>
       </c>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>527</v>
+      </c>
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
@@ -11673,69 +11269,122 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="F93" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="G93" s="5" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="H93" s="5">
-        <v>4</v>
-      </c>
-      <c r="I93" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="I93" s="5">
+        <v>20</v>
+      </c>
       <c r="J93" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q93" s="5"/>
+        <v>710</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="G94" s="5" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="H94" s="5">
-        <v>7</v>
-      </c>
-      <c r="I94" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I94" s="5">
+        <v>21</v>
+      </c>
       <c r="J94" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q94" s="5"/>
+        <v>711</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
@@ -11743,57 +11392,92 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="G95" s="5" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="H95" s="5">
-        <v>6</v>
-      </c>
-      <c r="I95" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
       <c r="J95" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
+      <c r="U95" s="5" t="s">
+        <v>681</v>
+      </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
+      <c r="Y95" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="A96" s="5">
+        <v>92</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="E96" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H96" s="5">
-        <v>5</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
-        <v>343</v>
-      </c>
+      <c r="J96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
@@ -11806,24 +11490,28 @@
       <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="A97" s="5">
+        <v>93</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="E97" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H97" s="5">
-        <v>8</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
-        <v>342</v>
-      </c>
+      <c r="J97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
@@ -11837,23 +11525,17 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>256</v>
+        <v>118</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>258</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -11871,23 +11553,17 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>261</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -11905,22 +11581,22 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -11939,67 +11615,109 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>694</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H101" s="5">
+        <v>10</v>
+      </c>
       <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
+      <c r="R101" s="5" t="s">
+        <v>594</v>
+      </c>
       <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
+      <c r="T101" s="5" t="s">
+        <v>593</v>
+      </c>
       <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
+      <c r="V101" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="W101" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H102" s="5">
+        <v>6</v>
+      </c>
+      <c r="I102" s="5">
+        <v>16</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>651</v>
+      </c>
       <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
+      <c r="R102" s="5" t="s">
+        <v>558</v>
+      </c>
       <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
+      <c r="T102" s="5" t="s">
+        <v>616</v>
+      </c>
       <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
+      <c r="V102" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
@@ -12007,33 +11725,51 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H103" s="5">
+        <v>5</v>
+      </c>
+      <c r="I103" s="5">
+        <v>17</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>650</v>
+      </c>
       <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
+      <c r="R103" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="S103" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
+      <c r="V103" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
@@ -12041,84 +11777,105 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H104" s="5">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I104" s="5">
-        <v>45</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>662</v>
+        <v>465</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>453</v>
+        <v>121</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>655</v>
       </c>
       <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
+      <c r="R104" s="5" t="s">
+        <v>618</v>
+      </c>
       <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
+      <c r="T104" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="U104" s="5"/>
       <c r="V104" s="5" t="s">
-        <v>281</v>
+        <v>493</v>
       </c>
       <c r="W104" s="5"/>
-      <c r="X104" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
+      <c r="Z104" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H105" s="5">
+        <v>19</v>
+      </c>
+      <c r="I105" s="5">
+        <v>38</v>
+      </c>
       <c r="J105" s="5"/>
+      <c r="K105" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
+      <c r="R105" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
+      <c r="V105" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
@@ -12126,26 +11883,26 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
@@ -12159,31 +11916,28 @@
       <c r="Z106" s="5"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>22</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="A107" s="5">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
@@ -12197,33 +11951,27 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>698</v>
+        <v>114</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>669</v>
-      </c>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
@@ -12236,141 +11984,159 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>8</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="5"/>
+      <c r="A109" s="5">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H109" s="5">
+        <v>2</v>
+      </c>
+      <c r="I109" s="5">
+        <v>1</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
+      <c r="R109" s="5" t="s">
+        <v>558</v>
+      </c>
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="5"/>
+      <c r="X109" s="5" t="s">
+        <v>599</v>
+      </c>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>9</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>114</v>
+      <c r="A110" s="5">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+        <v>692</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H110" s="4">
+        <v>16</v>
+      </c>
+      <c r="I110" s="5">
+        <v>35</v>
+      </c>
       <c r="J110" s="5"/>
+      <c r="K110" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
-      <c r="W110" s="5"/>
+      <c r="W110" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>698</v>
+        <v>283</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H111" s="4">
+        <v>15</v>
+      </c>
+      <c r="I111" s="5">
+        <v>34</v>
+      </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q111" s="5" t="s">
-        <v>428</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
-      <c r="W111" s="5"/>
+      <c r="W111" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
@@ -12384,27 +12150,29 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+        <v>705</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H113" s="5">
+        <v>2</v>
+      </c>
       <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="J113" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
@@ -12417,28 +12185,42 @@
       <c r="Z113" s="5"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>19</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="A114" s="5">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H114" s="5">
+        <v>7</v>
+      </c>
+      <c r="I114" s="5">
+        <v>15</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
       <c r="S114" s="5"/>
@@ -12452,10 +12234,10 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>116</v>
@@ -12463,161 +12245,202 @@
       <c r="D115" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>698</v>
+      <c r="E115" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H115" s="5">
+        <v>22</v>
+      </c>
+      <c r="I115" s="5">
+        <v>41</v>
+      </c>
       <c r="J115" s="5"/>
-      <c r="K115" s="5" t="s">
-        <v>189</v>
+      <c r="M115" s="5" t="s">
+        <v>630</v>
       </c>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
-      <c r="W115" s="5"/>
-      <c r="X115" s="5"/>
+      <c r="V115" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="W115" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="X115" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>10</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
+      <c r="A116" s="5">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H116" s="5">
+        <v>24</v>
+      </c>
+      <c r="I116" s="5">
+        <v>43</v>
+      </c>
       <c r="J116" s="5"/>
-      <c r="K116" s="5" t="s">
-        <v>192</v>
+      <c r="M116" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
+      <c r="V116" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="W116" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="G117" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H117" s="5">
+        <v>20</v>
+      </c>
+      <c r="I117" s="5">
+        <v>39</v>
+      </c>
       <c r="J117" s="5"/>
-      <c r="K117" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q117" s="5" t="s">
-        <v>399</v>
-      </c>
+      <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
+      <c r="V117" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="W117" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>14</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="A118" s="5">
         <v>116</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H118" s="5">
+        <v>25</v>
+      </c>
+      <c r="I118" s="5">
+        <v>44</v>
+      </c>
       <c r="J118" s="5"/>
-      <c r="K118" s="5" t="s">
-        <v>386</v>
+      <c r="M118" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
-      <c r="U118" s="5"/>
-      <c r="V118" s="5"/>
-      <c r="W118" s="5"/>
-      <c r="X118" s="5"/>
+      <c r="U118" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W118" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="X118" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>605</v>
+        <v>15</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -12636,110 +12459,205 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>701</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E120" s="5"/>
       <c r="F120" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="5"/>
+        <v>289</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H120" s="5">
+        <v>4</v>
+      </c>
+      <c r="I120" s="5">
+        <v>18</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
+      <c r="R120" s="5" t="s">
+        <v>621</v>
+      </c>
       <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5"/>
+      <c r="T120" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="U120" s="5" t="s">
+        <v>687</v>
+      </c>
       <c r="V120" s="5"/>
-      <c r="W120" s="5"/>
+      <c r="W120" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="X120" s="5"/>
-      <c r="Y120" s="5"/>
+      <c r="Y120" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="Z120" s="5"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H121" s="5">
+        <v>3</v>
+      </c>
+      <c r="I121" s="5">
+        <v>19</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q121" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="R121" s="5" t="s">
+        <v>622</v>
+      </c>
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
-      <c r="U121" s="5"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
+      <c r="U121" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="V121" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="W121" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H122" s="7">
+        <v>26</v>
+      </c>
+      <c r="I122" s="7">
+        <v>45</v>
+      </c>
       <c r="J122" s="5"/>
+      <c r="K122" t="s">
+        <v>573</v>
+      </c>
+      <c r="L122" t="s">
+        <v>374</v>
+      </c>
+      <c r="M122" t="s">
+        <v>465</v>
+      </c>
+      <c r="N122" t="s">
+        <v>455</v>
+      </c>
+      <c r="O122" t="s">
+        <v>419</v>
+      </c>
       <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
+      <c r="R122" t="s">
+        <v>712</v>
+      </c>
+      <c r="S122" t="s">
+        <v>713</v>
+      </c>
+      <c r="T122" t="s">
+        <v>617</v>
+      </c>
+      <c r="U122" t="s">
+        <v>377</v>
+      </c>
+      <c r="V122" t="s">
+        <v>714</v>
+      </c>
+      <c r="W122" t="s">
+        <v>210</v>
+      </c>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>116</v>
@@ -12748,73 +12666,135 @@
         <v>117</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H123" s="5">
+        <v>29</v>
+      </c>
+      <c r="I123" s="5">
+        <v>48</v>
+      </c>
       <c r="J123" s="5"/>
-      <c r="Q123" s="5"/>
+      <c r="K123" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="O123" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q123" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
-      <c r="U123" s="5"/>
-      <c r="V123" s="5"/>
-      <c r="W123" s="5"/>
+      <c r="U123" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="V123" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="W123" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>701</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="5"/>
-      <c r="Q124" s="5"/>
+        <v>292</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H124" s="5">
+        <v>9</v>
+      </c>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
+      <c r="V124" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="W124" s="5"/>
-      <c r="X124" s="5"/>
+      <c r="X124" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>6</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="A125" s="5">
+        <v>123</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -12831,18 +12811,24 @@
       <c r="Z125" s="5"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>13</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="A126" s="5">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -12860,17 +12846,23 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -12880,46 +12872,72 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
+      <c r="V127" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="W127" s="5"/>
-      <c r="X127" s="5"/>
+      <c r="X127" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H128" s="5">
+        <v>34</v>
+      </c>
+      <c r="I128" s="5">
+        <v>53</v>
+      </c>
       <c r="J128" s="5"/>
+      <c r="K128" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
+      <c r="V128" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="W128" s="5"/>
-      <c r="X128" s="5"/>
+      <c r="X128" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>112</v>
@@ -12944,7 +12962,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>119</v>
@@ -12953,12 +12971,20 @@
         <v>112</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
+      <c r="G130" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H130" s="5">
+        <v>4</v>
+      </c>
       <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
       <c r="S130" s="5"/>
@@ -12971,22 +12997,22 @@
       <c r="Z130" s="5"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>95</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
+      <c r="G131" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H131" s="5">
+        <v>7</v>
+      </c>
       <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="J131" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
       <c r="S131" s="5"/>
@@ -12999,22 +13025,22 @@
       <c r="Z131" s="5"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>45</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
+      <c r="G132" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H132" s="5">
+        <v>8</v>
+      </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
+      <c r="J132" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
@@ -13027,22 +13053,22 @@
       <c r="Z132" s="5"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>44</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="G133" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H133" s="5">
+        <v>1</v>
+      </c>
       <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
+      <c r="J133" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
       <c r="S133" s="5"/>
@@ -13055,22 +13081,22 @@
       <c r="Z133" s="5"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>94</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="G134" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H134" s="5">
+        <v>2</v>
+      </c>
       <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="J134" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
       <c r="S134" s="5"/>
@@ -13083,22 +13109,24 @@
       <c r="Z134" s="5"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>110</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
+      <c r="G135" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H135" s="5">
+        <v>23</v>
+      </c>
       <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="J135" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
       <c r="S135" s="5"/>
@@ -13111,22 +13139,24 @@
       <c r="Z135" s="5"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>127</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>704</v>
+      </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
+      <c r="G136" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H136" s="5">
+        <v>5</v>
+      </c>
       <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+      <c r="J136" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
       <c r="S136" s="5"/>
@@ -13139,22 +13169,24 @@
       <c r="Z136" s="5"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>42</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
+      <c r="G137" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H137" s="5">
+        <v>8</v>
+      </c>
       <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="J137" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
       <c r="S137" s="5"/>
@@ -13273,7 +13305,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13560,9 +13592,9 @@
       <c r="D7" s="1">
         <v>26</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="str">
         <f>VLOOKUP(A7,'Misko3 pinout'!$B$3:$F$137,4,)</f>
-        <v>0</v>
+        <v>LIN interface</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -14267,9 +14299,9 @@
       <c r="J22" s="1">
         <v>26</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="1" t="str">
         <f>VLOOKUP(G22,'Misko3 pinout'!$B$3:$F$137,4,)</f>
-        <v>0</v>
+        <v>LIN interface</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>

--- a/Hardware/Documentation/Misko3 pin mapping.xlsx
+++ b/Hardware/Documentation/Misko3 pin mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/markoj_fe1_uni-lj_si/Documents/Pedagogika/OME/Razvojni sistem/Misko3 git/MiSKo3/Hardware/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1466" documentId="8_{8F55C5EF-2DE0-49B2-9A4D-B42DB703D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{962BDE31-2FB6-43AD-B891-6425CD816CAE}"/>
+  <xr:revisionPtr revIDLastSave="1519" documentId="8_{8F55C5EF-2DE0-49B2-9A4D-B42DB703D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B197DB9-D195-4AFE-9C07-5F5ACF63D11B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CA822E52-2D53-4BE7-96F2-490201202367}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="725">
   <si>
     <t>PB7</t>
   </si>
@@ -2168,12 +2168,6 @@
     <t>DAC2</t>
   </si>
   <si>
-    <t>SDA2</t>
-  </si>
-  <si>
-    <t>SCL2</t>
-  </si>
-  <si>
     <t>SPI1_MOSI/SPI3_MOSI</t>
   </si>
   <si>
@@ -2181,6 +2175,42 @@
   </si>
   <si>
     <t>USART2_CK/UART5_CTS</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>DA0</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2394,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2382,9 +2412,6 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2407,6 +2434,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2822,8 +2861,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9321D637-6504-4084-98EC-7820ABD83526}" name="Misko3pinout" displayName="Misko3pinout" ref="A2:Z137" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A2:Z137" xr:uid="{9321D637-6504-4084-98EC-7820ABD83526}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z137">
-    <sortCondition ref="A2:A137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Z136">
+    <sortCondition ref="H2:H137"/>
   </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{09048AD1-8AFE-402A-AAF8-D76D398DA77B}" name="MCU pin" dataDxfId="38"/>
@@ -7268,7 +7307,7 @@
   <dimension ref="A1:AA137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,46 +7338,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="11" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="Z1" s="11"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7422,92 +7461,139 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="A3" s="5">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="5">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="V4" s="5" t="s">
+        <v>614</v>
+      </c>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="5">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -7515,217 +7601,247 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+      <c r="Z5" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>192</v>
+      <c r="A6" s="5">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="V6" s="5" t="s">
+        <v>612</v>
+      </c>
       <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="X6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>380</v>
+      <c r="A7" s="5">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="Z7" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>544</v>
+        <v>150</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>507</v>
+        <v>127</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>543</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="5" t="s">
-        <v>620</v>
-      </c>
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="W8" s="5"/>
+        <v>626</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5" t="s">
+        <v>720</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>668</v>
+        <v>457</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5" t="s">
-        <v>619</v>
+        <v>253</v>
       </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="U9" s="5"/>
       <c r="V9" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="W9" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="5">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>336</v>
+      <c r="F10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="4">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>721</v>
       </c>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="T10" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -7734,287 +7850,280 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="5">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>645</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="5">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5" t="s">
+        <v>714</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>386</v>
+        <v>183</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>654</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="A13" s="5">
+        <v>74</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="4">
         <v>3</v>
       </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>403</v>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5" t="s">
-        <v>600</v>
-      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="W13" s="5"/>
       <c r="X13" s="5" t="s">
-        <v>404</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="A14" s="5">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="4">
         <v>4</v>
       </c>
-      <c r="I14" s="5">
-        <v>3</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>406</v>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="W14" s="5"/>
       <c r="X14" s="5" t="s">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>409</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>411</v>
-      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H16" s="5">
-        <v>6</v>
-      </c>
-      <c r="I16" s="5">
-        <v>5</v>
-      </c>
+      <c r="A16" s="5">
+        <v>83</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
-        <v>683</v>
-      </c>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>413</v>
-      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>698</v>
+        <v>115</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -8028,40 +8137,32 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H18" s="4">
-        <v>6</v>
-      </c>
+      <c r="A18" s="5">
+        <v>104</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="6" t="s">
-        <v>592</v>
-      </c>
+      <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -8071,29 +8172,27 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H19" s="5">
-        <v>3</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>345</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -8106,31 +8205,28 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="5">
+        <v>106</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -8144,33 +8240,27 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>697</v>
+        <v>114</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>668</v>
-      </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -8184,10 +8274,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>116</v>
@@ -8195,25 +8285,17 @@
       <c r="D22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>697</v>
+      <c r="E22" s="5" t="s">
+        <v>699</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>428</v>
-      </c>
+      <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -8226,30 +8308,27 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>697</v>
+        <v>210</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>699</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -8263,30 +8342,27 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>697</v>
+        <v>213</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>699</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -8300,51 +8376,47 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>708</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>585</v>
+        <v>153</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="H25" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>466</v>
-      </c>
+      <c r="J25" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="T25" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>685</v>
+      </c>
       <c r="V25" s="5" t="s">
-        <v>615</v>
+        <v>452</v>
       </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -8353,103 +8425,85 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>708</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>585</v>
+        <v>709</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="H26" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>719</v>
+      </c>
       <c r="K26" s="5" t="s">
-        <v>416</v>
+        <v>394</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>647</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>588</v>
+        <v>241</v>
       </c>
       <c r="S26" s="5"/>
-      <c r="T26" s="6" t="s">
-        <v>589</v>
-      </c>
+      <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="V26" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>27</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>399</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -8457,218 +8511,234 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>445</v>
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>22</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="R28" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="W28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="R29" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I29" s="5">
+        <v>23</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="V29" s="5"/>
       <c r="W29" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="5">
-        <v>35</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
-        <v>336</v>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5">
+        <v>24</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
+      <c r="W30" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" s="4">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5">
+        <v>25</v>
+      </c>
       <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>628</v>
+      </c>
       <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="R31" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="W31" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H32" s="4">
-        <v>4</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>130</v>
+        <v>7</v>
+      </c>
+      <c r="I32" s="5">
+        <v>26</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>666</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="U32" s="5"/>
       <c r="V32" s="5" t="s">
-        <v>626</v>
+        <v>294</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
@@ -8676,47 +8746,40 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F33" s="5" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H33" s="5">
-        <v>5</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>374</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="H33" s="4">
+        <v>8</v>
+      </c>
+      <c r="I33" s="5">
+        <v>27</v>
+      </c>
+      <c r="J33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
       <c r="V33" s="5" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -8725,258 +8788,226 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>630</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I34" s="5">
+        <v>28</v>
+      </c>
+      <c r="J34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="V34" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z34" s="5"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F35" s="5" t="s">
-        <v>709</v>
+        <v>223</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H35" s="5">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>241</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10</v>
+      </c>
+      <c r="I35" s="5">
+        <v>29</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>605</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>600</v>
+        <v>197</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
+        <v>11</v>
+      </c>
+      <c r="I36" s="5">
         <v>30</v>
-      </c>
-      <c r="I36" s="5">
-        <v>49</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>243</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
+      <c r="U36" s="5" t="s">
+        <v>686</v>
+      </c>
       <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="W36" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H37" s="4">
-        <v>5</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I37" s="5">
+        <v>31</v>
+      </c>
+      <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>457</v>
+        <v>420</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5" t="s">
-        <v>253</v>
-      </c>
+      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>606</v>
-      </c>
+      <c r="U37" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H38" s="4">
-        <v>7</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I38" s="5">
+        <v>32</v>
+      </c>
+      <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>645</v>
+        <v>395</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>255</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
@@ -8984,90 +9015,80 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>602</v>
+        <v>194</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H39" s="5">
-        <v>28</v>
+      <c r="H39" s="4">
+        <v>14</v>
       </c>
       <c r="I39" s="5">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>643</v>
+        <v>457</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="U39" s="5" t="s">
+        <v>688</v>
+      </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>114</v>
+      <c r="A40" s="5">
+        <v>109</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="H40" s="5">
-        <v>3</v>
-      </c>
-      <c r="I40" s="5"/>
+        <v>692</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H40" s="4">
+        <v>15</v>
+      </c>
+      <c r="I40" s="5">
+        <v>34</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>396</v>
+        <v>629</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -9075,138 +9096,135 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>601</v>
+        <v>282</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H41" s="5">
-        <v>27</v>
+      <c r="H41" s="4">
+        <v>16</v>
       </c>
       <c r="I41" s="5">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>466</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="W41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F42" s="5" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H42" s="4">
-        <v>8</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I42" s="5">
+        <v>36</v>
+      </c>
+      <c r="J42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>654</v>
+        <v>509</v>
       </c>
       <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5" t="s">
-        <v>470</v>
-      </c>
+      <c r="R42" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="5" t="s">
-        <v>607</v>
-      </c>
+      <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43" s="4">
+        <v>18</v>
+      </c>
+      <c r="I43" s="5">
+        <v>37</v>
+      </c>
       <c r="J43" s="5"/>
+      <c r="M43" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
@@ -9220,91 +9238,149 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="G44" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
         <v>8</v>
       </c>
-      <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>337</v>
+        <v>190</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
+      <c r="X44" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>9</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
+      <c r="X45" s="5" t="s">
+        <v>480</v>
+      </c>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>21</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -9312,55 +9388,98 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="G47" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H47" s="5">
-        <v>36</v>
-      </c>
-      <c r="I47" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>20</v>
+      </c>
       <c r="J47" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q47" s="5"/>
+        <v>724</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="A48" s="4">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -9374,42 +9493,52 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H49" s="4">
-        <v>21</v>
-      </c>
-      <c r="I49" s="5">
-        <v>40</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H49" s="5">
+        <v>4</v>
+      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
+        <v>463</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>497</v>
+      </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
+      <c r="V49" s="5" t="s">
+        <v>615</v>
+      </c>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
@@ -9417,209 +9546,219 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>708</v>
+      </c>
       <c r="F50" s="5" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>310</v>
+        <v>585</v>
       </c>
       <c r="H50" s="5">
-        <v>7</v>
-      </c>
-      <c r="I50" s="5">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>588</v>
+      </c>
       <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="T50" s="6" t="s">
+        <v>589</v>
+      </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="5" t="s">
-        <v>474</v>
-      </c>
+      <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H51" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I51" s="5">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5" t="s">
-        <v>475</v>
-      </c>
+      <c r="R51" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
+      <c r="V51" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="W51" s="5"/>
-      <c r="X51" s="5" t="s">
-        <v>476</v>
-      </c>
+      <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F52" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1</v>
-      </c>
-      <c r="I52" s="5">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="5" t="s">
-        <v>477</v>
-      </c>
+      <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="F53" s="5" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H53" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I53" s="5">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5" t="s">
-        <v>480</v>
-      </c>
+      <c r="V53" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>301</v>
       </c>
       <c r="H54" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I54" s="5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -9628,94 +9767,77 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>692</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="4">
-        <v>13</v>
+      <c r="H55" s="5">
+        <v>22</v>
       </c>
       <c r="I55" s="5">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="K55" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="M55" s="5" t="s">
-        <v>124</v>
+        <v>630</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G56" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H56" s="4">
-        <v>12</v>
-      </c>
-      <c r="I56" s="5">
-        <v>31</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>127</v>
+      <c r="H56" s="5">
+        <v>23</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -9724,310 +9846,263 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>692</v>
+        <v>117</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H57" s="4">
-        <v>11</v>
-      </c>
-      <c r="I57" s="5">
-        <v>30</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>463</v>
+        <v>189</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="U57" s="5"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="5" t="s">
-        <v>603</v>
-      </c>
+      <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H58" s="4">
-        <v>3</v>
-      </c>
-      <c r="I58" s="5">
-        <v>22</v>
-      </c>
+      <c r="A58" s="4">
+        <v>10</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>423</v>
+        <v>192</v>
       </c>
       <c r="Q58" s="5"/>
-      <c r="R58" s="5" t="s">
-        <v>375</v>
-      </c>
+      <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H59" s="4">
-        <v>4</v>
-      </c>
-      <c r="I59" s="5">
-        <v>23</v>
-      </c>
+      <c r="A59" s="4">
+        <v>11</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5" t="s">
-        <v>370</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H60" s="4">
-        <v>5</v>
-      </c>
-      <c r="I60" s="5">
-        <v>24</v>
-      </c>
+      <c r="A60" s="4">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="5" t="s">
-        <v>385</v>
-      </c>
+      <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="W60" s="5"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H61" s="4">
-        <v>6</v>
-      </c>
-      <c r="I61" s="5">
-        <v>25</v>
-      </c>
+      <c r="A61" s="4">
+        <v>22</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>628</v>
+        <v>420</v>
       </c>
       <c r="Q61" s="5"/>
-      <c r="R61" s="5" t="s">
-        <v>390</v>
-      </c>
+      <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="5" t="s">
-        <v>600</v>
-      </c>
+      <c r="W61" s="5"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>692</v>
+        <v>117</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H62" s="4">
-        <v>7</v>
-      </c>
-      <c r="I62" s="5">
-        <v>26</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>666</v>
+        <v>423</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
-      <c r="V62" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="W62" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>693</v>
+        <v>117</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="Q63" s="5"/>
+      <c r="K63" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
@@ -10040,26 +10115,29 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H64" s="5">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
-        <v>336</v>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
@@ -10074,50 +10152,87 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" s="5">
+        <v>3</v>
+      </c>
+      <c r="I65" s="5">
+        <v>19</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>622</v>
+      </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
+      <c r="U65" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>604</v>
+        <v>117</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -10128,68 +10243,103 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
+      <c r="V66" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
+      <c r="X66" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>699</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="5"/>
+        <v>289</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" s="5">
+        <v>4</v>
+      </c>
+      <c r="I67" s="5">
+        <v>18</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
+      <c r="R67" s="5" t="s">
+        <v>621</v>
+      </c>
       <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
+      <c r="T67" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>687</v>
+      </c>
       <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
+      <c r="W67" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
+      <c r="Y67" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="Z67" s="5"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="A68" s="4">
+        <v>19</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
@@ -10204,41 +10354,51 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>692</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H69" s="4">
-        <v>8</v>
+        <v>234</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H69" s="5">
+        <v>3</v>
       </c>
       <c r="I69" s="5">
-        <v>27</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="Q69" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="T69" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="U69" s="5"/>
-      <c r="V69" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
@@ -10246,41 +10406,51 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>692</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H70" s="4">
-        <v>9</v>
+        <v>237</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H70" s="5">
+        <v>4</v>
       </c>
       <c r="I70" s="5">
-        <v>28</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="Q70" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="U70" s="5"/>
-      <c r="V70" s="5" t="s">
-        <v>294</v>
-      </c>
+      <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
@@ -10288,41 +10458,52 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>692</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H71" s="4">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H71" s="5">
+        <v>5</v>
       </c>
       <c r="I71" s="5">
-        <v>29</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="Q71" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
-      <c r="V71" s="5" t="s">
-        <v>493</v>
-      </c>
+      <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
@@ -10330,417 +10511,430 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H72" s="4">
-        <v>2</v>
-      </c>
-      <c r="I72" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" s="5">
+        <v>6</v>
+      </c>
+      <c r="I72" s="5">
+        <v>13</v>
+      </c>
       <c r="J72" s="5" t="s">
-        <v>320</v>
+        <v>249</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>492</v>
+        <v>383</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>659</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="T72" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>527</v>
+      </c>
       <c r="U72" s="5"/>
-      <c r="V72" s="5" t="s">
-        <v>612</v>
-      </c>
+      <c r="V72" s="5"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H73" s="4">
-        <v>3</v>
-      </c>
-      <c r="I73" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
       <c r="J73" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
+        <v>449</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5" t="s">
-        <v>615</v>
-      </c>
+      <c r="U73" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H74" s="4">
-        <v>4</v>
-      </c>
-      <c r="I74" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
       <c r="J74" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>506</v>
+        <v>330</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
+      <c r="R74" s="5" t="s">
+        <v>558</v>
+      </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5" t="s">
-        <v>28</v>
+        <v>599</v>
       </c>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="H75" s="5">
-        <v>12</v>
-      </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="5">
+        <v>2</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="K75" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="Q75" s="5"/>
-      <c r="R75" s="5" t="s">
-        <v>370</v>
-      </c>
+      <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
+      <c r="W75" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="X75" s="5" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="H76" s="5">
-        <v>14</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I76" s="5">
+        <v>3</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="Q76" s="5"/>
-      <c r="R76" s="5" t="s">
-        <v>375</v>
-      </c>
+      <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
+      <c r="W76" s="5" t="s">
+        <v>601</v>
+      </c>
       <c r="X76" s="5" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="H77" s="5">
-        <v>16</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="I77" s="5">
+        <v>4</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>378</v>
+        <v>403</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
+      <c r="W77" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="X77" s="5" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="H78" s="5">
-        <v>18</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="I78" s="5">
+        <v>5</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="K78" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
+      <c r="W78" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="X78" s="5" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="5" t="s">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="H79" s="5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5" t="s">
-        <v>391</v>
+      <c r="J79" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="Q79" s="5"/>
-      <c r="R79" s="5" t="s">
-        <v>390</v>
-      </c>
+      <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="U79" s="5"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="5" t="s">
-        <v>392</v>
-      </c>
+      <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>230</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H80" s="4">
-        <v>18</v>
-      </c>
-      <c r="I80" s="5">
-        <v>37</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="M80" s="5" t="s">
-        <v>507</v>
+        <v>707</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H80" s="5">
+        <v>8</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
@@ -10755,40 +10949,29 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>231</v>
+        <v>603</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H81" s="4">
-        <v>17</v>
-      </c>
-      <c r="I81" s="5">
-        <v>36</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>509</v>
-      </c>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5" t="s">
-        <v>510</v>
-      </c>
+      <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
@@ -10800,159 +10983,194 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G82" s="5" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="H82" s="5">
-        <v>6</v>
-      </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
-        <v>336</v>
+        <v>24</v>
+      </c>
+      <c r="I82" s="5">
+        <v>43</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="M82" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
+      <c r="V82" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="W82" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
+        <v>116</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H83" s="5">
+        <v>25</v>
+      </c>
+      <c r="I83" s="5">
+        <v>44</v>
+      </c>
       <c r="J83" s="5"/>
+      <c r="M83" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
+      <c r="U83" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="X83" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H84" s="5">
-        <v>3</v>
-      </c>
-      <c r="I84" s="5">
-        <v>10</v>
+      <c r="F84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H84" s="14">
+        <v>26</v>
+      </c>
+      <c r="I84" s="14">
+        <v>45</v>
       </c>
       <c r="J84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="P84" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q84" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="T84" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
+      <c r="K84" t="s">
+        <v>573</v>
+      </c>
+      <c r="L84" t="s">
+        <v>374</v>
+      </c>
+      <c r="M84" t="s">
+        <v>465</v>
+      </c>
+      <c r="N84" t="s">
+        <v>455</v>
+      </c>
+      <c r="O84" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q84" s="5"/>
+      <c r="R84" t="s">
+        <v>710</v>
+      </c>
+      <c r="S84" t="s">
+        <v>711</v>
+      </c>
+      <c r="T84" t="s">
+        <v>617</v>
+      </c>
+      <c r="U84" t="s">
+        <v>377</v>
+      </c>
+      <c r="V84" t="s">
+        <v>712</v>
+      </c>
+      <c r="W84" t="s">
+        <v>210</v>
+      </c>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85" s="5"/>
+        <v>605</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>693</v>
+      </c>
       <c r="F85" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H85" s="5">
-        <v>4</v>
-      </c>
-      <c r="I85" s="5">
-        <v>11</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-      <c r="M85" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="P85" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q85" s="5" t="s">
-        <v>516</v>
-      </c>
+      <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="T85" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
@@ -10962,26 +11180,26 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>114</v>
+        <v>604</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
@@ -10996,31 +11214,55 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>693</v>
+      </c>
       <c r="F87" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H87" s="5">
+        <v>27</v>
+      </c>
+      <c r="I87" s="5">
+        <v>46</v>
+      </c>
       <c r="J87" s="5"/>
-      <c r="Q87" s="5"/>
+      <c r="K87" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
+      <c r="V87" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
@@ -11028,35 +11270,44 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>239</v>
+        <v>602</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>301</v>
       </c>
       <c r="H88" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I88" s="5">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5" t="s">
-        <v>391</v>
+        <v>463</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
@@ -11065,455 +11316,475 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
-      <c r="X88" s="5" t="s">
-        <v>520</v>
-      </c>
+      <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
+      <c r="Z88" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>240</v>
+        <v>62</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>301</v>
       </c>
       <c r="H89" s="5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I89" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q89" s="5"/>
+        <v>627</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="R89" s="5"/>
-      <c r="S89" s="5" t="s">
-        <v>477</v>
-      </c>
+      <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5" t="s">
-        <v>522</v>
-      </c>
+      <c r="U89" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="V89" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="W89" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>301</v>
+        <v>584</v>
       </c>
       <c r="H90" s="5">
-        <v>32</v>
-      </c>
-      <c r="I90" s="5">
-        <v>51</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5" t="s">
-        <v>479</v>
+        <v>619</v>
       </c>
       <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
+      <c r="U90" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="W90" s="5"/>
-      <c r="X90" s="5" t="s">
-        <v>523</v>
-      </c>
+      <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>691</v>
+      </c>
       <c r="F91" s="5" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="H91" s="5">
-        <v>5</v>
-      </c>
-      <c r="I91" s="5">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5" t="s">
-        <v>189</v>
+        <v>544</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="P91" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q91" s="5" t="s">
-        <v>525</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5" t="s">
-        <v>397</v>
+        <v>620</v>
       </c>
       <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
+      <c r="U91" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="V91" s="5" t="s">
+        <v>612</v>
+      </c>
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>88</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5" t="s">
-        <v>249</v>
+      <c r="A92" s="4">
+        <v>1</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="H92" s="5">
-        <v>6</v>
-      </c>
-      <c r="I92" s="5">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="L92" s="5" t="s">
-        <v>528</v>
+      <c r="K92" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="P92" s="5" t="s">
-        <v>659</v>
+        <v>368</v>
       </c>
       <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="T92" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="U92" s="5"/>
+      <c r="R92" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5" t="s">
+        <v>678</v>
+      </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
+      <c r="X92" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>89</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5" t="s">
-        <v>251</v>
+      <c r="A93" s="4">
+        <v>2</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>309</v>
+        <v>584</v>
       </c>
       <c r="H93" s="5">
-        <v>2</v>
-      </c>
-      <c r="I93" s="5">
-        <v>20</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>710</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="5" t="s">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="P93" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q93" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="T93" s="6" t="s">
-        <v>512</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
       <c r="U93" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="V93" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="W93" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="X93" s="5"/>
+        <v>688</v>
+      </c>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>90</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5" t="s">
-        <v>253</v>
+      <c r="A94" s="4">
+        <v>3</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>309</v>
+        <v>584</v>
       </c>
       <c r="H94" s="5">
-        <v>1</v>
-      </c>
-      <c r="I94" s="5">
-        <v>21</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>711</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="5" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="P94" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q94" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="T94" s="5" t="s">
-        <v>515</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
       <c r="U94" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="V94" s="5" t="s">
-        <v>281</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="V94" s="5"/>
       <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
+      <c r="X94" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>91</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
-        <v>255</v>
+      <c r="A95" s="4">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>310</v>
+        <v>584</v>
       </c>
       <c r="H95" s="5">
-        <v>1</v>
-      </c>
-      <c r="I95" s="5">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>329</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="P95" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q95" s="5" t="s">
-        <v>513</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="Q95" s="5"/>
       <c r="R95" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="S95" s="5" t="s">
-        <v>434</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="S95" s="5"/>
       <c r="T95" s="5"/>
       <c r="U95" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5" t="s">
-        <v>535</v>
-      </c>
+      <c r="X95" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>92</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>257</v>
+      <c r="A96" s="4">
+        <v>5</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+        <v>691</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H96" s="5">
+        <v>20</v>
+      </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
+      <c r="K96" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
+      <c r="R96" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
+      <c r="U96" s="5" t="s">
+        <v>681</v>
+      </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
+      <c r="X96" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H97" s="5">
+        <v>30</v>
+      </c>
+      <c r="I97" s="5">
+        <v>49</v>
+      </c>
       <c r="J97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
+      <c r="K97" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
@@ -11521,59 +11792,104 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
+      <c r="Z97" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H98" s="5">
+        <v>31</v>
+      </c>
+      <c r="I98" s="5">
+        <v>50</v>
+      </c>
       <c r="J98" s="5"/>
+      <c r="K98" s="5" t="s">
+        <v>661</v>
+      </c>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
-      <c r="X98" s="5"/>
+      <c r="X98" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H99" s="5">
+        <v>5</v>
+      </c>
+      <c r="I99" s="5">
+        <v>17</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>650</v>
+      </c>
       <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
+      <c r="R99" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
+      <c r="V99" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
@@ -11581,33 +11897,51 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H100" s="5">
+        <v>6</v>
+      </c>
+      <c r="I100" s="5">
+        <v>16</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>651</v>
+      </c>
       <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
+      <c r="R100" s="5" t="s">
+        <v>558</v>
+      </c>
       <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
+      <c r="T100" s="5" t="s">
+        <v>616</v>
+      </c>
       <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
+      <c r="V100" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
@@ -11615,161 +11949,133 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H101" s="5">
-        <v>10</v>
-      </c>
-      <c r="I101" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="I101" s="5">
+        <v>6</v>
+      </c>
       <c r="J101" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="P101" s="5" t="s">
-        <v>656</v>
+        <v>184</v>
       </c>
       <c r="Q101" s="5"/>
-      <c r="R101" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="R101" s="5"/>
       <c r="S101" s="5"/>
-      <c r="T101" s="5" t="s">
-        <v>593</v>
-      </c>
+      <c r="T101" s="5"/>
       <c r="U101" s="5"/>
-      <c r="V101" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="W101" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="X101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H102" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I102" s="5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="P102" s="5" t="s">
-        <v>651</v>
+        <v>187</v>
       </c>
       <c r="Q102" s="5"/>
-      <c r="R102" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="T102" s="5"/>
       <c r="U102" s="5"/>
-      <c r="V102" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="V102" s="5"/>
       <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
+      <c r="X102" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E103" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="F103" s="5" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>309</v>
       </c>
       <c r="H103" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I103" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="P103" s="5" t="s">
-        <v>650</v>
+        <v>439</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="Q103" s="5"/>
-      <c r="R103" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="S103" s="5" t="s">
-        <v>400</v>
-      </c>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="5" t="s">
-        <v>294</v>
-      </c>
+      <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
@@ -11836,46 +12142,33 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H105" s="5">
-        <v>19</v>
-      </c>
-      <c r="I105" s="5">
-        <v>38</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="Q105" s="5"/>
-      <c r="R105" s="5" t="s">
-        <v>450</v>
-      </c>
+      <c r="R105" s="5"/>
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="5" t="s">
-        <v>454</v>
-      </c>
+      <c r="V105" s="5"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
@@ -11883,26 +12176,26 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
@@ -11917,26 +12210,26 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
@@ -11951,26 +12244,26 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
@@ -11984,159 +12277,147 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>107</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H109" s="5">
-        <v>2</v>
-      </c>
-      <c r="I109" s="5">
-        <v>1</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="N109" s="5" t="s">
-        <v>445</v>
-      </c>
+      <c r="A109" s="4">
+        <v>6</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
       <c r="Q109" s="5"/>
-      <c r="R109" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="R109" s="5"/>
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>692</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H110" s="4">
-        <v>16</v>
-      </c>
-      <c r="I110" s="5">
-        <v>35</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>292</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H110" s="5">
+        <v>9</v>
+      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q110" s="5"/>
+        <v>439</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
+      <c r="S110" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
-      <c r="V110" s="5"/>
-      <c r="W110" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="X110" s="5"/>
+      <c r="V110" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>109</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H111" s="4">
-        <v>15</v>
-      </c>
-      <c r="I111" s="5">
-        <v>34</v>
-      </c>
+      <c r="A111" s="4">
+        <v>13</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="5" t="s">
-        <v>629</v>
-      </c>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
-      <c r="W111" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="G112" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2</v>
+      </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="J112" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
@@ -12150,77 +12431,68 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="E113" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F113" s="5"/>
+        <v>694</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="G113" s="5" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="H113" s="5">
-        <v>2</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
-        <v>344</v>
+        <v>32</v>
+      </c>
+      <c r="I113" s="5">
+        <v>51</v>
+      </c>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
+      <c r="S113" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
+      <c r="X113" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
+        <v>31</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H114" s="5">
-        <v>7</v>
-      </c>
-      <c r="I114" s="5">
-        <v>15</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>562</v>
-      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
       <c r="S114" s="5"/>
@@ -12234,95 +12506,85 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H115" s="5">
-        <v>22</v>
-      </c>
-      <c r="I115" s="5">
-        <v>41</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="M115" s="5" t="s">
-        <v>630</v>
-      </c>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
-      <c r="V115" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="W115" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="X115" s="5" t="s">
-        <v>304</v>
-      </c>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>692</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H116" s="5">
-        <v>24</v>
-      </c>
-      <c r="I116" s="5">
-        <v>43</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="M116" s="5" t="s">
-        <v>443</v>
+        <v>630</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>656</v>
       </c>
       <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
+      <c r="R116" s="5" t="s">
+        <v>594</v>
+      </c>
       <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
+      <c r="T116" s="5" t="s">
+        <v>593</v>
+      </c>
       <c r="U116" s="5"/>
       <c r="V116" s="5" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="W116" s="5" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
@@ -12330,122 +12592,92 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H117" s="5">
-        <v>20</v>
-      </c>
-      <c r="I117" s="5">
-        <v>39</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
-      <c r="V117" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="W117" s="5" t="s">
-        <v>607</v>
-      </c>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H118" s="5">
-        <v>25</v>
-      </c>
-      <c r="I118" s="5">
-        <v>44</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="M118" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="V118" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="W118" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="X118" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H119" s="5">
+        <v>33</v>
+      </c>
+      <c r="I119" s="5">
+        <v>52</v>
+      </c>
       <c r="J119" s="5"/>
+      <c r="K119" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
@@ -12453,348 +12685,181 @@
       <c r="U119" s="5"/>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
-      <c r="X119" s="5"/>
+      <c r="X119" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H120" s="5">
-        <v>4</v>
-      </c>
-      <c r="I120" s="5">
-        <v>18</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="P120" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
       <c r="Q120" s="5"/>
-      <c r="R120" s="5" t="s">
-        <v>621</v>
-      </c>
+      <c r="R120" s="5"/>
       <c r="S120" s="5"/>
-      <c r="T120" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="U120" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
       <c r="V120" s="5"/>
-      <c r="W120" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="W120" s="5"/>
       <c r="X120" s="5"/>
-      <c r="Y120" s="5" t="s">
-        <v>535</v>
-      </c>
+      <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>119</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5" t="s">
-        <v>291</v>
-      </c>
+      <c r="A121" s="4">
+        <v>21</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="F121" s="4"/>
       <c r="G121" s="5" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="H121" s="5">
         <v>3</v>
       </c>
-      <c r="I121" s="5">
-        <v>19</v>
-      </c>
+      <c r="I121" s="5"/>
       <c r="J121" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="P121" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q121" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="R121" s="5" t="s">
-        <v>622</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="V121" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="W121" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H122" s="7">
-        <v>26</v>
-      </c>
-      <c r="I122" s="7">
-        <v>45</v>
-      </c>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
       <c r="J122" s="5"/>
-      <c r="K122" t="s">
-        <v>573</v>
-      </c>
-      <c r="L122" t="s">
-        <v>374</v>
-      </c>
-      <c r="M122" t="s">
-        <v>465</v>
-      </c>
-      <c r="N122" t="s">
-        <v>455</v>
-      </c>
-      <c r="O122" t="s">
-        <v>419</v>
-      </c>
       <c r="Q122" s="5"/>
-      <c r="R122" t="s">
-        <v>712</v>
-      </c>
-      <c r="S122" t="s">
-        <v>713</v>
-      </c>
-      <c r="T122" t="s">
-        <v>617</v>
-      </c>
-      <c r="U122" t="s">
-        <v>377</v>
-      </c>
-      <c r="V122" t="s">
-        <v>714</v>
-      </c>
-      <c r="W122" t="s">
-        <v>210</v>
-      </c>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="H123" s="5">
-        <v>29</v>
-      </c>
-      <c r="I123" s="5">
-        <v>48</v>
-      </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="N123" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="O123" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="P123" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q123" s="5" t="s">
-        <v>466</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="V123" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="W123" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H124" s="5">
-        <v>9</v>
-      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="N124" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="O124" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="P124" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q124" s="5" t="s">
-        <v>428</v>
-      </c>
+      <c r="J124" s="5"/>
+      <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-      <c r="S124" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="S124" s="5"/>
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
-      <c r="V124" s="5" t="s">
-        <v>623</v>
-      </c>
+      <c r="V124" s="5"/>
       <c r="W124" s="5"/>
-      <c r="X124" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>294</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -12812,23 +12877,17 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>296</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -12846,23 +12905,17 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>306</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -12872,63 +12925,39 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
-      <c r="V127" s="5" t="s">
-        <v>281</v>
-      </c>
+      <c r="V127" s="5"/>
       <c r="W127" s="5"/>
-      <c r="X127" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>126</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="H128" s="5">
-        <v>34</v>
-      </c>
-      <c r="I128" s="5">
-        <v>53</v>
-      </c>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>455</v>
+        <v>5</v>
+      </c>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
-      <c r="V128" s="5" t="s">
-        <v>255</v>
-      </c>
+      <c r="V128" s="5"/>
       <c r="W128" s="5"/>
-      <c r="X128" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
@@ -12962,28 +12991,26 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5" t="s">
+      <c r="E130" s="5"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="H130" s="5">
-        <v>4</v>
-      </c>
-      <c r="I130" s="5"/>
+      <c r="H130" s="16">
+        <v>6</v>
+      </c>
+      <c r="I130" s="16"/>
       <c r="J130" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
@@ -12997,21 +13024,27 @@
       <c r="Z130" s="5"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="A131" s="5">
+        <v>63</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="H131" s="5">
         <v>7</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
@@ -13025,37 +13058,65 @@
       <c r="Z131" s="5"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
+      <c r="A132" s="5">
+        <v>126</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G132" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H132" s="5">
-        <v>8</v>
-      </c>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
-        <v>340</v>
+        <v>34</v>
+      </c>
+      <c r="I132" s="5">
+        <v>53</v>
+      </c>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
+      <c r="V132" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="W132" s="5"/>
-      <c r="X132" s="5"/>
+      <c r="X132" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+      <c r="A133" s="5">
+        <v>30</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -13063,11 +13124,11 @@
         <v>301</v>
       </c>
       <c r="H133" s="5">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
@@ -13085,17 +13146,19 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="H134" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
@@ -13113,19 +13176,17 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H135" s="5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
@@ -13143,19 +13204,17 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="H136" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
@@ -13169,23 +13228,27 @@
       <c r="Z136" s="5"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="5">
+        <v>46</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="H137" s="5">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
